--- a/finetuning/it_datasets/it_dataset/it_skanes_dataset.xlsx
+++ b/finetuning/it_datasets/it_dataset/it_skanes_dataset.xlsx
@@ -654,9 +654,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>If you're in skanes and looking for a top-rated hotel, check out Hotel Skanes located at Dekhila Skanes, 5000. 
-This four-star hotel is perfect for hotel lovers and offers a range of amenities to choose from. 
-With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: -34.9271714, 138.5995342. For more details, visit their website at https://www.google.com/maps/place/Hotel+Skanes/data=!4m10!3m9!1s0x13021356dc489419:0xe628cc07aa43f83b!5m2!4m1!1i2!8m2!3d35.7641601!4d10.746232!16s%2Fg%2F12hsz2kbp!19sChIJGZRI3FYTAhMRO_hDqgfMKOY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 29 919 643.</t>
+          <t>Tucked away in the pleasant town of Skanes, Hotel Skanes is a vibrant beachfront resort that caters to both leisure and business travelers. With an array of amenities such as five outdoor pools, three restaurants, and a lively animation program, the hotel provides an immersive and unforgettable experience. Situated conveniently just steps away from the picturesque shoreline, Hotel Skanes is an ideal destination for those seeking a blissful escape adorned with the charm of the Mediterranean Sea.</t>
         </is>
       </c>
     </row>
@@ -759,9 +757,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>If you're in skanes and looking for a great place to stay, check out Hotel Skanes located at Dekhila Skanes, 5000. 
-This top-rated hotel is perfect for Hotel lovers and offers a range of categories to choose from. 
-With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: -34.9271714, 138.5995342. For more details, visit their website at https://www.google.com/maps/place/Hotel+Skanes/data=!4m10!3m9!1s0x13021356dc489419:0xe628cc07aa43f83b!5m2!4m1!1i2!8m2!3d35.7641601!4d10.746232!16s%2Fg%2F12hsz2kbp!19sChIJGZRI3FYTAhMRO_hDqgfMKOY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 29 919 643.</t>
+          <t>Hotel Skanes, located in skanes, is a 4.4-star all-inclusive resort that offers a variety of amenities, including 5 outdoor pools, 3 restaurants, a nightclub, and a tennis court. The hotel is situated on the beach and offers colorful rooms with balconies or patios. It is a popular destination for families and couples.</t>
         </is>
       </c>
     </row>
@@ -864,9 +860,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>If you're in skanes and looking for a great place to stay, check out Hotel Skanes located at Dekhila Skanes, 5000. 
-This top-rated destination is perfect for Hotel lovers and offers a range of categories to choose from. 
-With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: -34.9271714, 138.5995342. For more details, call them at 29 919 643.</t>
+          <t>Hotel Skanes is a 4-star all-inclusive resort located in Skanes, Tunisia. It features 2545 rooms, 5 outdoor swimming pools, 3 restaurants, and various entertainment options such as animation, tennis courts, a nightclub, and a water park. The hotel is situated on the beachfront, offering stunning views of the Mediterranean Sea.</t>
         </is>
       </c>
     </row>
@@ -961,7 +955,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>If you're in skanes and looking for something fun to do, check out Skanes Serail beach located at Skanes Serail beach, Skanes. This top-rated destination is perfect for Pavillon de plage lovers. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.769481, 10.7671271.</t>
+          <t>Skanes Serail beach is a popular beach located in Skanes, Tunisia. It offers a variety of amenities, including a beach bar, restaurant, and sun loungers. The beach is also known for its beautiful scenery, with clear blue waters and white sandy beaches. It is a great place to relax and enjoy the sun and sand. The beach is located at (35.769481, 10.7671271).</t>
         </is>
       </c>
     </row>
@@ -1064,7 +1058,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>If you're in skanes and looking for a fantastic place to stay, check out Hotel Skanes at Dekhila Skanes, 5000. This top-rated hotel is a perfect destination for those seeking a comfortable and convenient stay. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: -34.9271714, 138.5995342. For more information, call them at 29 919 643.</t>
+          <t>Hotel Skanes is a beachfront all-inclusive resort located in Dekhila Skanes. This convivial complex features colorful rooms, 5 outdoor swimming pools, and 3 restaurants. It is a popular destination for families and couples alike, with extensive leisure facilities including a tennis court, a nightclub, and water slides. The hotel's 952 reviews praise its convenient location, comfortable accommodations, and excellent amenities.</t>
         </is>
       </c>
     </row>
